--- a/Output/Barriers_Pathway_Output.xlsx
+++ b/Output/Barriers_Pathway_Output.xlsx
@@ -656,6 +656,46 @@
         <v>11</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Output/Barriers_Pathway_Output.xlsx
+++ b/Output/Barriers_Pathway_Output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">Basin</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t xml:space="preserve">Wenatchee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Meadow Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Meadow Creek 01</t>
   </si>
   <si>
     <t xml:space="preserve">Lower Icicle Creek</t>
@@ -521,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -538,13 +532,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -558,7 +552,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -578,7 +572,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -598,7 +592,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -618,7 +612,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -633,66 +627,6 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
         <v>11</v>
       </c>
     </row>
